--- a/biology/Botanique/Poire_de_Hazé/Poire_de_Hazé.xlsx
+++ b/biology/Botanique/Poire_de_Hazé/Poire_de_Hazé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poire_de_Haz%C3%A9</t>
+          <t>Poire_de_Hazé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La poire de Hazé est une variété ancienne de petite poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Poire_de_Haz%C3%A9</t>
+          <t>Poire_de_Hazé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'origine très ancienne, la poire de Hazé est déjà citée en 1690 par Jean Merlet, comme originaire du bourg de Hazé. La poire est dédiée à Madame de Lansac, dame de Hazé, qui a été gouvernante de Louis XIV alors dauphin (d'où son appellation également de Dauphine)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'origine très ancienne, la poire de Hazé est déjà citée en 1690 par Jean Merlet, comme originaire du bourg de Hazé. La poire est dédiée à Madame de Lansac, dame de Hazé, qui a été gouvernante de Louis XIV alors dauphin (d'où son appellation également de Dauphine).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Poire_de_Haz%C3%A9</t>
+          <t>Poire_de_Hazé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Poire de Lansac,
 Franchipane d'automne,
-Dauphine[1].
-Lichefrion d'automne[2]</t>
+Dauphine.
+Lichefrion d'automne</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Poire_de_Haz%C3%A9</t>
+          <t>Poire_de_Hazé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,13 +593,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fruit
-Petite poire ronde, lisse et jaune, des plus fondantes et des meilleures[1].
-Sa forme est entre ronde et plate, plate vers la tête, un peu allongée vers la queue, allure de bergamotte[2].
-Œil gros et à fleur, queue droite et longuette[2].
-Le fruit se mange jusqu'en janvier s'il est cueilli tard, restant sur l'arbre même quand il n'a plus de feuilles, jusqu'aux gelées. Son eau est fort douce, particulière[1].
-Arbre
-Sur les terres froides et humides, la poire est pâteuse et insipide, que l'arbre soit conduit sur cognassier. ou sur franc[2].
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petite poire ronde, lisse et jaune, des plus fondantes et des meilleures.
+Sa forme est entre ronde et plate, plate vers la tête, un peu allongée vers la queue, allure de bergamotte.
+Œil gros et à fleur, queue droite et longuette.
+Le fruit se mange jusqu'en janvier s'il est cueilli tard, restant sur l'arbre même quand il n'a plus de feuilles, jusqu'aux gelées. Son eau est fort douce, particulière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Poire_de_Hazé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poire_de_Haz%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur les terres froides et humides, la poire est pâteuse et insipide, que l'arbre soit conduit sur cognassier. ou sur franc.
 </t>
         </is>
       </c>
